--- a/ISA 406 Group Maker/output.xlsx
+++ b/ISA 406 Group Maker/output.xlsx
@@ -44,10 +44,10 @@
     <t>Section</t>
   </si>
   <si>
-    <t>Glazebrook</t>
-  </si>
-  <si>
-    <t>Dane</t>
+    <t>Immanuel</t>
+  </si>
+  <si>
+    <t>Chopin</t>
   </si>
   <si>
     <t>Male</t>
@@ -56,370 +56,370 @@
     <t>A</t>
   </si>
   <si>
-    <t>Healy</t>
-  </si>
-  <si>
-    <t>Aimee</t>
+    <t>Katlin</t>
+  </si>
+  <si>
+    <t>MacGall</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Channon</t>
-  </si>
-  <si>
-    <t>Cullen</t>
-  </si>
-  <si>
-    <t>Matteau</t>
-  </si>
-  <si>
-    <t>Alli</t>
-  </si>
-  <si>
-    <t>Roscam</t>
-  </si>
-  <si>
-    <t>Rickert</t>
-  </si>
-  <si>
-    <t>Bollands</t>
-  </si>
-  <si>
-    <t>Jae</t>
-  </si>
-  <si>
-    <t>Tatershall</t>
-  </si>
-  <si>
-    <t>Florina</t>
-  </si>
-  <si>
-    <t>Youthead</t>
-  </si>
-  <si>
-    <t>Papageno</t>
-  </si>
-  <si>
-    <t>Olenin</t>
-  </si>
-  <si>
-    <t>Wilden</t>
-  </si>
-  <si>
-    <t>Radnage</t>
-  </si>
-  <si>
-    <t>Katharina</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Flory</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>Berk</t>
-  </si>
-  <si>
-    <t>Albarez</t>
-  </si>
-  <si>
-    <t>Tatiania</t>
-  </si>
-  <si>
-    <t>Piwall</t>
-  </si>
-  <si>
-    <t>Sherm</t>
-  </si>
-  <si>
-    <t>Lamberth</t>
-  </si>
-  <si>
-    <t>Hansiain</t>
-  </si>
-  <si>
-    <t>Pescod</t>
-  </si>
-  <si>
-    <t>Stan</t>
-  </si>
-  <si>
-    <t>Burg</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Snowdon</t>
+    <t>Wally</t>
+  </si>
+  <si>
+    <t>Tissiman</t>
+  </si>
+  <si>
+    <t>Eldredge</t>
+  </si>
+  <si>
+    <t>Skirvane</t>
+  </si>
+  <si>
+    <t>Heloise</t>
+  </si>
+  <si>
+    <t>Borrill</t>
+  </si>
+  <si>
+    <t>Liana</t>
+  </si>
+  <si>
+    <t>Lantaph</t>
+  </si>
+  <si>
+    <t>Meghann</t>
+  </si>
+  <si>
+    <t>Harkins</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Bogey</t>
+  </si>
+  <si>
+    <t>Gilda</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
+    <t>Thurston</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Manny</t>
+  </si>
+  <si>
+    <t>Paddie</t>
+  </si>
+  <si>
+    <t>Jacquelynn</t>
+  </si>
+  <si>
+    <t>Jakeman</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>Linton</t>
+  </si>
+  <si>
+    <t>Merna</t>
+  </si>
+  <si>
+    <t>Bienvenu</t>
+  </si>
+  <si>
+    <t>Florry</t>
+  </si>
+  <si>
+    <t>Francesconi</t>
+  </si>
+  <si>
+    <t>Trueman</t>
+  </si>
+  <si>
+    <t>Trunchion</t>
+  </si>
+  <si>
+    <t>Haze</t>
+  </si>
+  <si>
+    <t>Cubbinelli</t>
+  </si>
+  <si>
+    <t>Kimble</t>
+  </si>
+  <si>
+    <t>Beane</t>
+  </si>
+  <si>
+    <t>Cathe</t>
+  </si>
+  <si>
+    <t>Grimolbie</t>
+  </si>
+  <si>
+    <t>Allayne</t>
+  </si>
+  <si>
+    <t>MacMenamin</t>
   </si>
   <si>
     <t>Mata</t>
   </si>
   <si>
-    <t>Randalston</t>
-  </si>
-  <si>
-    <t>Glynis</t>
-  </si>
-  <si>
-    <t>Mollison</t>
-  </si>
-  <si>
-    <t>Sigvard</t>
-  </si>
-  <si>
-    <t>Grayley</t>
-  </si>
-  <si>
-    <t>Rollin</t>
+    <t>Gilmour</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Winterbourne</t>
-  </si>
-  <si>
-    <t>Margarethe</t>
-  </si>
-  <si>
-    <t>Boyfield</t>
-  </si>
-  <si>
-    <t>Sheffie</t>
-  </si>
-  <si>
-    <t>Mellhuish</t>
-  </si>
-  <si>
-    <t>Alyse</t>
-  </si>
-  <si>
-    <t>Oughtright</t>
-  </si>
-  <si>
-    <t>Brooks</t>
-  </si>
-  <si>
-    <t>Datte</t>
-  </si>
-  <si>
-    <t>Gareth</t>
-  </si>
-  <si>
-    <t>Rendall</t>
-  </si>
-  <si>
-    <t>Rhiamon</t>
-  </si>
-  <si>
-    <t>Leile</t>
-  </si>
-  <si>
-    <t>Ilka</t>
-  </si>
-  <si>
-    <t>Mapson</t>
-  </si>
-  <si>
-    <t>Lil</t>
-  </si>
-  <si>
-    <t>Kadar</t>
-  </si>
-  <si>
-    <t>Ashlin</t>
-  </si>
-  <si>
-    <t>Graver</t>
-  </si>
-  <si>
-    <t>Joelly</t>
+    <t>Aarika</t>
+  </si>
+  <si>
+    <t>Porcas</t>
+  </si>
+  <si>
+    <t>Juliane</t>
+  </si>
+  <si>
+    <t>Philson</t>
+  </si>
+  <si>
+    <t>Elizabet</t>
+  </si>
+  <si>
+    <t>Trevett</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Rosenzveig</t>
+  </si>
+  <si>
+    <t>Lenette</t>
+  </si>
+  <si>
+    <t>Dabbes</t>
+  </si>
+  <si>
+    <t>Reece</t>
+  </si>
+  <si>
+    <t>Pelz</t>
+  </si>
+  <si>
+    <t>Dory</t>
+  </si>
+  <si>
+    <t>Vigar</t>
+  </si>
+  <si>
+    <t>Anderea</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>Hobie</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Ramsbotham</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Hallaways</t>
-  </si>
-  <si>
-    <t>Malory</t>
-  </si>
-  <si>
-    <t>Fielding</t>
-  </si>
-  <si>
-    <t>Taddeo</t>
-  </si>
-  <si>
-    <t>Enderby</t>
-  </si>
-  <si>
-    <t>Pascale</t>
-  </si>
-  <si>
-    <t>Affron</t>
-  </si>
-  <si>
-    <t>Cyrill</t>
-  </si>
-  <si>
-    <t>Metschke</t>
-  </si>
-  <si>
-    <t>Anthea</t>
-  </si>
-  <si>
-    <t>Gurery</t>
-  </si>
-  <si>
-    <t>Annabella</t>
-  </si>
-  <si>
-    <t>Digges</t>
-  </si>
-  <si>
-    <t>Patsy</t>
-  </si>
-  <si>
-    <t>Broadbent</t>
-  </si>
-  <si>
-    <t>Lucais</t>
-  </si>
-  <si>
-    <t>Morde</t>
-  </si>
-  <si>
-    <t>Felita</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>Sigrid</t>
+    <t>Lurette</t>
+  </si>
+  <si>
+    <t>Waylen</t>
+  </si>
+  <si>
+    <t>Nicolai</t>
+  </si>
+  <si>
+    <t>Jenicek</t>
+  </si>
+  <si>
+    <t>Delmar</t>
+  </si>
+  <si>
+    <t>Vasilyev</t>
+  </si>
+  <si>
+    <t>Juline</t>
+  </si>
+  <si>
+    <t>Ingre</t>
+  </si>
+  <si>
+    <t>Faina</t>
+  </si>
+  <si>
+    <t>Rogger</t>
+  </si>
+  <si>
+    <t>Dionisio</t>
+  </si>
+  <si>
+    <t>Fitzsymonds</t>
+  </si>
+  <si>
+    <t>Vinni</t>
+  </si>
+  <si>
+    <t>Tatton</t>
+  </si>
+  <si>
+    <t>Lita</t>
+  </si>
+  <si>
+    <t>Velti</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Hobard</t>
+  </si>
+  <si>
+    <t>Dur</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Weddup</t>
-  </si>
-  <si>
-    <t>Derward</t>
-  </si>
-  <si>
-    <t>Loftie</t>
-  </si>
-  <si>
-    <t>Siouxie</t>
-  </si>
-  <si>
-    <t>Henriet</t>
-  </si>
-  <si>
-    <t>Dannel</t>
-  </si>
-  <si>
-    <t>Daintry</t>
-  </si>
-  <si>
-    <t>Roanna</t>
-  </si>
-  <si>
-    <t>Klement</t>
-  </si>
-  <si>
-    <t>Lutero</t>
-  </si>
-  <si>
-    <t>Sholl</t>
-  </si>
-  <si>
-    <t>Tania</t>
-  </si>
-  <si>
-    <t>Pechan</t>
-  </si>
-  <si>
-    <t>Garrett</t>
-  </si>
-  <si>
-    <t>Elion</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>McBrady</t>
-  </si>
-  <si>
-    <t>Hardy</t>
-  </si>
-  <si>
-    <t>Lavers</t>
-  </si>
-  <si>
-    <t>Lotti</t>
-  </si>
-  <si>
-    <t>McLafferty</t>
-  </si>
-  <si>
-    <t>Timoteo</t>
-  </si>
-  <si>
-    <t>Soame</t>
-  </si>
-  <si>
-    <t>Shaylyn</t>
-  </si>
-  <si>
-    <t>Grugerr</t>
-  </si>
-  <si>
-    <t>Dulci</t>
-  </si>
-  <si>
-    <t>Bontoft</t>
-  </si>
-  <si>
-    <t>Collete</t>
-  </si>
-  <si>
-    <t>Urwen</t>
-  </si>
-  <si>
-    <t>Nikos</t>
-  </si>
-  <si>
-    <t>Espine</t>
-  </si>
-  <si>
-    <t>Leeanne</t>
-  </si>
-  <si>
-    <t>Aldgate</t>
-  </si>
-  <si>
-    <t>Jenilee</t>
-  </si>
-  <si>
-    <t>Poser</t>
-  </si>
-  <si>
-    <t>Valeria</t>
-  </si>
-  <si>
-    <t>Skaife d'Ingerthorpe</t>
-  </si>
-  <si>
-    <t>Gertrude</t>
+    <t>Melodee</t>
+  </si>
+  <si>
+    <t>Shepherdson</t>
+  </si>
+  <si>
+    <t>Charisse</t>
+  </si>
+  <si>
+    <t>Sebire</t>
+  </si>
+  <si>
+    <t>Loise</t>
+  </si>
+  <si>
+    <t>Rospars</t>
+  </si>
+  <si>
+    <t>Bartholomeo</t>
+  </si>
+  <si>
+    <t>Possa</t>
+  </si>
+  <si>
+    <t>Prentiss</t>
+  </si>
+  <si>
+    <t>Hulmes</t>
+  </si>
+  <si>
+    <t>Ladonna</t>
+  </si>
+  <si>
+    <t>O'Beirne</t>
+  </si>
+  <si>
+    <t>Brinn</t>
+  </si>
+  <si>
+    <t>Stivey</t>
+  </si>
+  <si>
+    <t>Jermayne</t>
+  </si>
+  <si>
+    <t>Krause</t>
+  </si>
+  <si>
+    <t>Willyt</t>
+  </si>
+  <si>
+    <t>Shackleton</t>
+  </si>
+  <si>
+    <t>Cathyleen</t>
+  </si>
+  <si>
+    <t>Crady</t>
+  </si>
+  <si>
+    <t>Rustin</t>
+  </si>
+  <si>
+    <t>Dallaghan</t>
+  </si>
+  <si>
+    <t>Erv</t>
+  </si>
+  <si>
+    <t>Fawlks</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Cuberley</t>
+  </si>
+  <si>
+    <t>Jacintha</t>
+  </si>
+  <si>
+    <t>Novic</t>
+  </si>
+  <si>
+    <t>Bealle</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Modestia</t>
+  </si>
+  <si>
+    <t>Zimmermanns</t>
+  </si>
+  <si>
+    <t>Karol</t>
+  </si>
+  <si>
+    <t>Grebner</t>
+  </si>
+  <si>
+    <t>Paquito</t>
+  </si>
+  <si>
+    <t>Phelips</t>
+  </si>
+  <si>
+    <t>Althea</t>
+  </si>
+  <si>
+    <t>Pahler</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
   <cols>
     <col min="1" max="1" width="3.375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.71875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.84765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.44921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.390625" customWidth="true" bestFit="true"/>
@@ -523,7 +523,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -538,16 +538,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>145.0</v>
+        <v>132.0</v>
       </c>
       <c r="G2" t="n">
-        <v>86.0</v>
+        <v>84.0</v>
       </c>
       <c r="H2" t="n">
-        <v>134.0</v>
+        <v>115.0</v>
       </c>
       <c r="I2" t="n">
-        <v>77.0</v>
+        <v>96.0</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -570,16 +570,16 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>82.0</v>
+        <v>114.0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.0</v>
+        <v>138.0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.0</v>
+        <v>103.0</v>
       </c>
       <c r="I3" t="n">
-        <v>90.0</v>
+        <v>58.0</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -599,19 +599,19 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>115.0</v>
+        <v>69.0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.0</v>
+        <v>64.0</v>
       </c>
       <c r="H4" t="n">
         <v>141.0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.0</v>
+        <v>99.0</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -631,19 +631,19 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="G5" t="n">
-        <v>82.0</v>
+        <v>65.0</v>
       </c>
       <c r="H5" t="n">
-        <v>123.0</v>
+        <v>58.0</v>
       </c>
       <c r="I5" t="n">
-        <v>134.0</v>
+        <v>142.0</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
@@ -663,19 +663,19 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
       <c r="G6" t="n">
-        <v>76.0</v>
+        <v>93.0</v>
       </c>
       <c r="H6" t="n">
-        <v>103.0</v>
+        <v>85.0</v>
       </c>
       <c r="I6" t="n">
-        <v>113.0</v>
+        <v>137.0</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -695,19 +695,19 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>139.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>47.0</v>
-      </c>
       <c r="H7" t="n">
-        <v>41.0</v>
+        <v>120.0</v>
       </c>
       <c r="I7" t="n">
-        <v>143.0</v>
+        <v>149.0</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -730,16 +730,16 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0</v>
+        <v>129.0</v>
       </c>
       <c r="G8" t="n">
-        <v>56.0</v>
+        <v>84.0</v>
       </c>
       <c r="H8" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.0</v>
+        <v>111.0</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -762,16 +762,16 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>82.0</v>
       </c>
-      <c r="G9" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>31.0</v>
-      </c>
       <c r="I9" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="B10" t="n">
         <v>2.0</v>
@@ -791,19 +791,19 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>64.0</v>
+        <v>129.0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.0</v>
+        <v>108.0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.0</v>
+        <v>130.0</v>
       </c>
       <c r="I10" t="n">
-        <v>68.0</v>
+        <v>124.0</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>2.0</v>
@@ -823,19 +823,19 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>31.0</v>
+        <v>77.0</v>
       </c>
       <c r="G11" t="n">
-        <v>61.0</v>
+        <v>106.0</v>
       </c>
       <c r="H11" t="n">
-        <v>57.0</v>
+        <v>68.0</v>
       </c>
       <c r="I11" t="n">
-        <v>88.0</v>
+        <v>102.0</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B12" t="n">
         <v>3.0</v>
@@ -858,16 +858,16 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
       <c r="G12" t="n">
-        <v>100.0</v>
+        <v>83.0</v>
       </c>
       <c r="H12" t="n">
         <v>150.0</v>
       </c>
       <c r="I12" t="n">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="B13" t="n">
         <v>3.0</v>
@@ -887,19 +887,19 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>55.0</v>
+        <v>146.0</v>
       </c>
       <c r="G13" t="n">
-        <v>117.0</v>
+        <v>99.0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.0</v>
+        <v>144.0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.0</v>
+        <v>146.0</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="B14" t="n">
         <v>3.0</v>
@@ -919,19 +919,19 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>109.0</v>
+        <v>115.0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.0</v>
+        <v>66.0</v>
       </c>
       <c r="H14" t="n">
-        <v>22.0</v>
+        <v>51.0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.0</v>
+        <v>61.0</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="B15" t="n">
         <v>3.0</v>
@@ -951,19 +951,19 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>31.0</v>
+        <v>109.0</v>
       </c>
       <c r="G15" t="n">
-        <v>80.0</v>
+        <v>129.0</v>
       </c>
       <c r="H15" t="n">
-        <v>103.0</v>
+        <v>66.0</v>
       </c>
       <c r="I15" t="n">
-        <v>75.0</v>
+        <v>68.0</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="B16" t="n">
         <v>3.0</v>
@@ -983,19 +983,19 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>32.0</v>
+        <v>90.0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.0</v>
+        <v>129.0</v>
       </c>
       <c r="H16" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.0</v>
+        <v>114.0</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B17" t="n">
         <v>4.0</v>
@@ -1018,16 +1018,16 @@
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>25.0</v>
+        <v>74.0</v>
       </c>
       <c r="G17" t="n">
-        <v>130.0</v>
+        <v>138.0</v>
       </c>
       <c r="H17" t="n">
-        <v>72.0</v>
+        <v>131.0</v>
       </c>
       <c r="I17" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" t="n">
         <v>4.0</v>
@@ -1050,16 +1050,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>38.0</v>
+        <v>106.0</v>
       </c>
       <c r="G18" t="n">
-        <v>111.0</v>
+        <v>130.0</v>
       </c>
       <c r="H18" t="n">
-        <v>143.0</v>
+        <v>146.0</v>
       </c>
       <c r="I18" t="n">
-        <v>55.0</v>
+        <v>123.0</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" t="n">
         <v>4.0</v>
@@ -1082,16 +1082,16 @@
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>87.0</v>
+        <v>71.0</v>
       </c>
       <c r="G19" t="n">
-        <v>125.0</v>
+        <v>99.0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.0</v>
+        <v>72.0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0</v>
+        <v>144.0</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="B20" t="n">
         <v>4.0</v>
@@ -1114,16 +1114,16 @@
         <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>73.0</v>
+        <v>94.0</v>
       </c>
       <c r="G20" t="n">
-        <v>32.0</v>
+        <v>81.0</v>
       </c>
       <c r="H20" t="n">
-        <v>35.0</v>
+        <v>95.0</v>
       </c>
       <c r="I20" t="n">
-        <v>123.0</v>
+        <v>68.0</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="B21" t="n">
         <v>4.0</v>
@@ -1146,16 +1146,16 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="G21" t="n">
-        <v>63.0</v>
+        <v>98.0</v>
       </c>
       <c r="H21" t="n">
-        <v>47.0</v>
+        <v>58.0</v>
       </c>
       <c r="I21" t="n">
-        <v>104.0</v>
+        <v>78.0</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
@@ -1178,16 +1178,16 @@
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>72.0</v>
+        <v>45.0</v>
       </c>
       <c r="G22" t="n">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="H22" t="n">
-        <v>60.0</v>
+        <v>134.0</v>
       </c>
       <c r="I22" t="n">
-        <v>91.0</v>
+        <v>140.0</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" t="n">
         <v>5.0</v>
@@ -1210,16 +1210,16 @@
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="G23" t="n">
-        <v>94.0</v>
+        <v>113.0</v>
       </c>
       <c r="H23" t="n">
-        <v>104.0</v>
+        <v>66.0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.0</v>
+        <v>146.0</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="B24" t="n">
         <v>5.0</v>
@@ -1239,19 +1239,19 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>128.0</v>
+        <v>56.0</v>
       </c>
       <c r="G24" t="n">
-        <v>107.0</v>
+        <v>81.0</v>
       </c>
       <c r="H24" t="n">
-        <v>127.0</v>
+        <v>88.0</v>
       </c>
       <c r="I24" t="n">
-        <v>81.0</v>
+        <v>133.0</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="B25" t="n">
         <v>5.0</v>
@@ -1274,16 +1274,16 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>129.0</v>
+        <v>101.0</v>
       </c>
       <c r="G25" t="n">
-        <v>89.0</v>
+        <v>136.0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0</v>
+        <v>142.0</v>
       </c>
       <c r="I25" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="B26" t="n">
         <v>5.0</v>
@@ -1306,16 +1306,16 @@
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G26" t="n">
-        <v>74.0</v>
+        <v>81.0</v>
       </c>
       <c r="H26" t="n">
-        <v>126.0</v>
+        <v>130.0</v>
       </c>
       <c r="I26" t="n">
-        <v>118.0</v>
+        <v>142.0</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="B27" t="n">
         <v>6.0</v>
@@ -1335,19 +1335,19 @@
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>28.0</v>
+        <v>103.0</v>
       </c>
       <c r="G27" t="n">
-        <v>31.0</v>
+        <v>51.0</v>
       </c>
       <c r="H27" t="n">
-        <v>123.0</v>
+        <v>89.0</v>
       </c>
       <c r="I27" t="n">
-        <v>52.0</v>
+        <v>92.0</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
@@ -1367,19 +1367,19 @@
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>133.0</v>
+        <v>110.0</v>
       </c>
       <c r="G28" t="n">
-        <v>116.0</v>
+        <v>49.0</v>
       </c>
       <c r="H28" t="n">
-        <v>45.0</v>
+        <v>114.0</v>
       </c>
       <c r="I28" t="n">
-        <v>77.0</v>
+        <v>142.0</v>
       </c>
       <c r="J28" t="s">
         <v>55</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="B29" t="n">
         <v>6.0</v>
@@ -1399,19 +1399,19 @@
         <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>24.0</v>
+        <v>98.0</v>
       </c>
       <c r="G29" t="n">
-        <v>130.0</v>
+        <v>86.0</v>
       </c>
       <c r="H29" t="n">
-        <v>114.0</v>
+        <v>67.0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B30" t="n">
         <v>6.0</v>
@@ -1434,16 +1434,16 @@
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>57.0</v>
+        <v>93.0</v>
       </c>
       <c r="G30" t="n">
-        <v>115.0</v>
+        <v>76.0</v>
       </c>
       <c r="H30" t="n">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.0</v>
+        <v>86.0</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
@@ -1466,16 +1466,16 @@
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
       <c r="G31" t="n">
-        <v>72.0</v>
+        <v>113.0</v>
       </c>
       <c r="H31" t="n">
-        <v>81.0</v>
+        <v>71.0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.0</v>
+        <v>143.0</v>
       </c>
       <c r="J31" t="s">
         <v>55</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" t="n">
         <v>7.0</v>
@@ -1495,19 +1495,19 @@
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>72.0</v>
+        <v>98.0</v>
       </c>
       <c r="G32" t="n">
-        <v>66.0</v>
+        <v>41.0</v>
       </c>
       <c r="H32" t="n">
-        <v>46.0</v>
+        <v>116.0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.0</v>
+        <v>139.0</v>
       </c>
       <c r="J32" t="s">
         <v>76</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B33" t="n">
         <v>7.0</v>
@@ -1530,16 +1530,16 @@
         <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>150.0</v>
+        <v>132.0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.0</v>
+        <v>96.0</v>
       </c>
       <c r="H33" t="n">
-        <v>26.0</v>
+        <v>65.0</v>
       </c>
       <c r="I33" t="n">
-        <v>71.0</v>
+        <v>139.0</v>
       </c>
       <c r="J33" t="s">
         <v>76</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B34" t="n">
         <v>7.0</v>
@@ -1562,16 +1562,16 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>106.0</v>
+        <v>64.0</v>
       </c>
       <c r="G34" t="n">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
       <c r="H34" t="n">
-        <v>100.0</v>
+        <v>61.0</v>
       </c>
       <c r="I34" t="n">
-        <v>51.0</v>
+        <v>125.0</v>
       </c>
       <c r="J34" t="s">
         <v>76</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>39.0</v>
+        <v>33.0</v>
       </c>
       <c r="B35" t="n">
         <v>7.0</v>
@@ -1594,16 +1594,16 @@
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>39.0</v>
+        <v>85.0</v>
       </c>
       <c r="G35" t="n">
-        <v>55.0</v>
+        <v>135.0</v>
       </c>
       <c r="H35" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="I35" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="B36" t="n">
         <v>7.0</v>
@@ -1623,19 +1623,19 @@
         <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="G36" t="n">
-        <v>22.0</v>
+        <v>125.0</v>
       </c>
       <c r="H36" t="n">
-        <v>46.0</v>
+        <v>80.0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.0</v>
+        <v>140.0</v>
       </c>
       <c r="J36" t="s">
         <v>76</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="B37" t="n">
         <v>8.0</v>
@@ -1658,16 +1658,16 @@
         <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>130.0</v>
+        <v>101.0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.0</v>
+        <v>40.0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.0</v>
+        <v>95.0</v>
       </c>
       <c r="I37" t="n">
-        <v>32.0</v>
+        <v>82.0</v>
       </c>
       <c r="J37" t="s">
         <v>76</v>
@@ -1687,19 +1687,19 @@
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0</v>
+        <v>125.0</v>
       </c>
       <c r="G38" t="n">
-        <v>44.0</v>
+        <v>65.0</v>
       </c>
       <c r="H38" t="n">
-        <v>112.0</v>
+        <v>73.0</v>
       </c>
       <c r="I38" t="n">
-        <v>126.0</v>
+        <v>83.0</v>
       </c>
       <c r="J38" t="s">
         <v>76</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="B39" t="n">
         <v>8.0</v>
@@ -1719,19 +1719,19 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>24.0</v>
+        <v>78.0</v>
       </c>
       <c r="G39" t="n">
-        <v>131.0</v>
+        <v>85.0</v>
       </c>
       <c r="H39" t="n">
-        <v>43.0</v>
+        <v>115.0</v>
       </c>
       <c r="I39" t="n">
-        <v>83.0</v>
+        <v>59.0</v>
       </c>
       <c r="J39" t="s">
         <v>76</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="B40" t="n">
         <v>8.0</v>
@@ -1751,19 +1751,19 @@
         <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>25.0</v>
+        <v>94.0</v>
       </c>
       <c r="G40" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.0</v>
+        <v>126.0</v>
       </c>
       <c r="I40" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
       <c r="J40" t="s">
         <v>76</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B41" t="n">
         <v>8.0</v>
@@ -1786,16 +1786,16 @@
         <v>16</v>
       </c>
       <c r="F41" t="n">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
       <c r="G41" t="n">
-        <v>37.0</v>
+        <v>93.0</v>
       </c>
       <c r="H41" t="n">
-        <v>46.0</v>
+        <v>131.0</v>
       </c>
       <c r="I41" t="n">
-        <v>117.0</v>
+        <v>144.0</v>
       </c>
       <c r="J41" t="s">
         <v>76</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>54.0</v>
+        <v>49.0</v>
       </c>
       <c r="B42" t="n">
         <v>9.0</v>
@@ -1815,19 +1815,19 @@
         <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="G42" t="n">
-        <v>108.0</v>
+        <v>40.0</v>
       </c>
       <c r="H42" t="n">
-        <v>101.0</v>
+        <v>52.0</v>
       </c>
       <c r="I42" t="n">
-        <v>102.0</v>
+        <v>144.0</v>
       </c>
       <c r="J42" t="s">
         <v>97</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="B43" t="n">
         <v>9.0</v>
@@ -1847,19 +1847,19 @@
         <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>57.0</v>
+        <v>110.0</v>
       </c>
       <c r="G43" t="n">
-        <v>88.0</v>
+        <v>133.0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.0</v>
+        <v>129.0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.0</v>
+        <v>92.0</v>
       </c>
       <c r="J43" t="s">
         <v>97</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>47.0</v>
+        <v>58.0</v>
       </c>
       <c r="B44" t="n">
         <v>9.0</v>
@@ -1882,16 +1882,16 @@
         <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>140.0</v>
+        <v>108.0</v>
       </c>
       <c r="G44" t="n">
-        <v>58.0</v>
+        <v>100.0</v>
       </c>
       <c r="H44" t="n">
-        <v>142.0</v>
+        <v>120.0</v>
       </c>
       <c r="I44" t="n">
-        <v>110.0</v>
+        <v>87.0</v>
       </c>
       <c r="J44" t="s">
         <v>97</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>58.0</v>
+        <v>50.0</v>
       </c>
       <c r="B45" t="n">
         <v>9.0</v>
@@ -1911,19 +1911,19 @@
         <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
-        <v>22.0</v>
+        <v>53.0</v>
       </c>
       <c r="G45" t="n">
-        <v>74.0</v>
+        <v>53.0</v>
       </c>
       <c r="H45" t="n">
-        <v>90.0</v>
+        <v>78.0</v>
       </c>
       <c r="I45" t="n">
-        <v>136.0</v>
+        <v>119.0</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
       <c r="B46" t="n">
         <v>9.0</v>
@@ -1943,19 +1943,19 @@
         <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.0</v>
+        <v>61.0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.0</v>
+        <v>93.0</v>
       </c>
       <c r="I46" t="n">
-        <v>121.0</v>
+        <v>94.0</v>
       </c>
       <c r="J46" t="s">
         <v>97</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c r="B47" t="n">
         <v>10.0</v>
@@ -1978,16 +1978,16 @@
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="G47" t="n">
-        <v>39.0</v>
+        <v>85.0</v>
       </c>
       <c r="H47" t="n">
-        <v>22.0</v>
+        <v>125.0</v>
       </c>
       <c r="I47" t="n">
-        <v>147.0</v>
+        <v>144.0</v>
       </c>
       <c r="J47" t="s">
         <v>97</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="B48" t="n">
         <v>10.0</v>
@@ -2010,16 +2010,16 @@
         <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>111.0</v>
+        <v>145.0</v>
       </c>
       <c r="G48" t="n">
-        <v>92.0</v>
+        <v>62.0</v>
       </c>
       <c r="H48" t="n">
-        <v>57.0</v>
+        <v>71.0</v>
       </c>
       <c r="I48" t="n">
-        <v>127.0</v>
+        <v>141.0</v>
       </c>
       <c r="J48" t="s">
         <v>97</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B49" t="n">
         <v>10.0</v>
@@ -2039,19 +2039,19 @@
         <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>50.0</v>
+        <v>106.0</v>
       </c>
       <c r="G49" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="H49" t="n">
         <v>68.0</v>
       </c>
-      <c r="H49" t="n">
-        <v>32.0</v>
-      </c>
       <c r="I49" t="n">
-        <v>82.0</v>
+        <v>64.0</v>
       </c>
       <c r="J49" t="s">
         <v>97</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B50" t="n">
         <v>10.0</v>
@@ -2074,16 +2074,16 @@
         <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>48.0</v>
+        <v>120.0</v>
       </c>
       <c r="G50" t="n">
-        <v>71.0</v>
+        <v>91.0</v>
       </c>
       <c r="H50" t="n">
-        <v>127.0</v>
+        <v>111.0</v>
       </c>
       <c r="I50" t="n">
-        <v>65.0</v>
+        <v>91.0</v>
       </c>
       <c r="J50" t="s">
         <v>97</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>55.0</v>
+        <v>44.0</v>
       </c>
       <c r="B51" t="n">
         <v>10.0</v>
@@ -2103,19 +2103,19 @@
         <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>92.0</v>
+        <v>85.0</v>
       </c>
       <c r="G51" t="n">
-        <v>40.0</v>
+        <v>54.0</v>
       </c>
       <c r="H51" t="n">
         <v>106.0</v>
       </c>
       <c r="I51" t="n">
-        <v>69.0</v>
+        <v>89.0</v>
       </c>
       <c r="J51" t="s">
         <v>97</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
       <c r="B52" t="n">
         <v>11.0</v>
@@ -2138,16 +2138,16 @@
         <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>21.0</v>
+        <v>58.0</v>
       </c>
       <c r="G52" t="n">
-        <v>119.0</v>
+        <v>108.0</v>
       </c>
       <c r="H52" t="n">
-        <v>145.0</v>
+        <v>135.0</v>
       </c>
       <c r="I52" t="n">
-        <v>63.0</v>
+        <v>126.0</v>
       </c>
       <c r="J52" t="s">
         <v>97</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="B53" t="n">
         <v>11.0</v>
@@ -2170,16 +2170,16 @@
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>115.0</v>
+        <v>131.0</v>
       </c>
       <c r="G53" t="n">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
       <c r="H53" t="n">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="I53" t="n">
-        <v>146.0</v>
+        <v>144.0</v>
       </c>
       <c r="J53" t="s">
         <v>97</v>
@@ -2199,19 +2199,19 @@
         <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>96.0</v>
+        <v>141.0</v>
       </c>
       <c r="G54" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="H54" t="n">
-        <v>85.0</v>
+        <v>118.0</v>
       </c>
       <c r="I54" t="n">
-        <v>56.0</v>
+        <v>94.0</v>
       </c>
       <c r="J54" t="s">
         <v>97</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B55" t="n">
         <v>11.0</v>
@@ -2231,19 +2231,19 @@
         <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>23.0</v>
+        <v>122.0</v>
       </c>
       <c r="G55" t="n">
-        <v>68.0</v>
+        <v>99.0</v>
       </c>
       <c r="H55" t="n">
-        <v>23.0</v>
+        <v>96.0</v>
       </c>
       <c r="I55" t="n">
-        <v>69.0</v>
+        <v>85.0</v>
       </c>
       <c r="J55" t="s">
         <v>97</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="B56" t="n">
         <v>11.0</v>
@@ -2266,16 +2266,16 @@
         <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>80.0</v>
+        <v>129.0</v>
       </c>
       <c r="G56" t="n">
-        <v>50.0</v>
+        <v>81.0</v>
       </c>
       <c r="H56" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="I56" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="J56" t="s">
         <v>97</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>44.0</v>
+        <v>57.0</v>
       </c>
       <c r="B57" t="n">
         <v>12.0</v>
@@ -2298,16 +2298,16 @@
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="G57" t="n">
-        <v>123.0</v>
+        <v>136.0</v>
       </c>
       <c r="H57" t="n">
-        <v>56.0</v>
+        <v>81.0</v>
       </c>
       <c r="I57" t="n">
-        <v>113.0</v>
+        <v>60.0</v>
       </c>
       <c r="J57" t="s">
         <v>97</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B58" t="n">
         <v>12.0</v>
@@ -2330,16 +2330,16 @@
         <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>55.0</v>
+        <v>80.0</v>
       </c>
       <c r="G58" t="n">
-        <v>116.0</v>
+        <v>53.0</v>
       </c>
       <c r="H58" t="n">
-        <v>145.0</v>
+        <v>122.0</v>
       </c>
       <c r="I58" t="n">
-        <v>118.0</v>
+        <v>82.0</v>
       </c>
       <c r="J58" t="s">
         <v>97</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="B59" t="n">
         <v>12.0</v>
@@ -2362,16 +2362,16 @@
         <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>70.0</v>
+        <v>123.0</v>
       </c>
       <c r="G59" t="n">
-        <v>115.0</v>
+        <v>76.0</v>
       </c>
       <c r="H59" t="n">
-        <v>68.0</v>
+        <v>88.0</v>
       </c>
       <c r="I59" t="n">
-        <v>141.0</v>
+        <v>129.0</v>
       </c>
       <c r="J59" t="s">
         <v>97</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="B60" t="n">
         <v>12.0</v>
@@ -2391,19 +2391,19 @@
         <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>93.0</v>
+        <v>134.0</v>
       </c>
       <c r="G60" t="n">
-        <v>78.0</v>
+        <v>96.0</v>
       </c>
       <c r="H60" t="n">
-        <v>36.0</v>
+        <v>127.0</v>
       </c>
       <c r="I60" t="n">
-        <v>92.0</v>
+        <v>126.0</v>
       </c>
       <c r="J60" t="s">
         <v>97</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.0</v>
+        <v>56.0</v>
       </c>
       <c r="B61" t="n">
         <v>12.0</v>
@@ -2426,16 +2426,16 @@
         <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>49.0</v>
+        <v>116.0</v>
       </c>
       <c r="G61" t="n">
-        <v>25.0</v>
+        <v>70.0</v>
       </c>
       <c r="H61" t="n">
-        <v>39.0</v>
+        <v>60.0</v>
       </c>
       <c r="I61" t="n">
-        <v>59.0</v>
+        <v>51.0</v>
       </c>
       <c r="J61" t="s">
         <v>97</v>
